--- a/excel/9.xlsx
+++ b/excel/9.xlsx
@@ -887,7 +887,11 @@
           <t>通风安全学孙路路 (6-10周) 安全工程2019-1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>弹性力学基础蒋邦友 (9-16周) 采矿工程（智能开采方向）2019-1</t>
@@ -948,7 +952,11 @@
           <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (8-15周) 临班677</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>爆破安全辛林 (6-9周) 安全工程2019-1-4</t>
@@ -1073,7 +1081,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>运输项目管理与评估孙彦明,张传明 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输项目管理与评估孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1144,7 +1152,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1162,7 +1170,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1244,7 +1252,11 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1317,7 +1329,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1334,7 +1346,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1355,14 +1367,14 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1575,7 +1587,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1680,7 +1692,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1837,7 +1849,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1859,7 +1871,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1978,7 +1990,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -2020,7 +2032,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr"/>
@@ -2061,7 +2073,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2192,7 +2204,7 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2273,7 +2285,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2748,7 +2760,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>突发事件案例分析杨文宇 (5-9周) 安全工程（应急管理方向）2019</t>
+          <t>突发事件案例分析董晓素 (5-9周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -3063,7 +3075,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3089,7 +3101,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3558,11 +3570,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>几何量公差与检测戴向云 (2-9周) 机械设计制造及其自动化2019-1-3</t>
@@ -3597,7 +3605,11 @@
           <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -3742,7 +3754,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>突发事件案例分析刘义鑫 (6-9周) 安全工程（应急管理方向）2018</t>
+          <t>突发事件案例分析董晓素 (6-9周) 安全工程（应急管理方向）2018</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3881,7 +3893,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3982,7 +3994,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -4049,7 +4061,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4129,7 +4141,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4159,7 +4171,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4181,7 +4193,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -4267,11 +4279,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4340,7 +4348,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4370,7 +4378,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4408,7 +4416,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -4947,11 +4955,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -5940,7 +5944,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5948,11 +5952,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6675,12 +6675,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -8723,14 +8723,10 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
@@ -8752,11 +8748,7 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
@@ -8794,7 +8786,11 @@
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
@@ -8822,13 +8818,21 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>

--- a/excel/9.xlsx
+++ b/excel/9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK90"/>
+  <dimension ref="A1:AK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,8 +662,10 @@
       <c r="J2" t="n">
         <v>506</v>
       </c>
-      <c r="K2" t="n">
-        <v>708</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0708</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -897,7 +899,11 @@
           <t>弹性力学基础蒋邦友 (9-16周) 采矿工程（智能开采方向）2019-1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>微观经济学(A)赵金凯 (9周) 国际经济与贸易2021-1</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
@@ -918,7 +924,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>绿色开采技术郭忠平 (6-10周) 采矿工程2018-1-3</t>
+          <t>绿色开采技术郭忠平 (7-10周) 采矿工程2018-1-3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -926,11 +932,7 @@
           <t>特种废水处理技术高洪阁 (7-15周) 环境工程2018-1-3</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
@@ -968,11 +970,7 @@
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -1006,7 +1004,11 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -1075,7 +1077,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
@@ -1086,12 +1088,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1139,7 +1141,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1148,7 +1150,11 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>环境地学张文睿 (9周) 环境工程2019-1-3</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
@@ -1170,7 +1176,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1183,11 +1189,15 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>环境地学张文睿 (9周) 环境工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -1214,7 +1224,11 @@
           <t>塑性力学王同旭 (9-14周) 工程力学2019-1-2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>构造地质学金爱文 (9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>物流学赵鲁华 (1-9周) 交通运输2019-1-2</t>
@@ -1276,7 +1290,11 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1317,7 +1335,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1340,7 +1358,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1381,12 +1399,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1402,12 +1420,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1463,7 +1481,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>弹性力学基础陈军涛 (9-12周) 采矿工程2019-3-4</t>
+          <t>弹性力学基础刘学生 (9-12周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1630,17 +1648,9 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
@@ -1668,11 +1678,7 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
@@ -1745,7 +1751,11 @@
           <t>恢复生态学李琳 (7-15周) 环境工程2018-1-3</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>岩石学樊爱萍,杨仁超 (9周) 地质工程2020-2</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
@@ -1775,7 +1785,11 @@
           <t>轨道交通运营张嘉敏 (7-14周) 交通运输2019-1-2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>岩石学樊爱萍,杨仁超 (9周) 地质工程2020-2</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>工程热力学与传热学赵文彬 (1-12周) 安全工程2020-3-4</t>
@@ -1854,10 +1868,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>证券投资学周衍平 (1-4,6-9周) 投资学2019-1-2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>会计学(B)刘英姿 (9周) 工商管理2020-1-2</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1867,14 +1885,22 @@
           <t>服务营销高军红 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>构造地质学金爱文 (9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>沉积环境与沉积相杨仁超 (8-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>会计学专业导论*张咏梅 (4-11周) 会计学2021-1-2</t>
@@ -1898,12 +1924,12 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -1952,7 +1978,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1972,7 +1998,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1980,7 +2006,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2142,7 +2168,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
@@ -2438,7 +2468,11 @@
           <t>近代测量平差概论刘国林 (1-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>制图基础（A）戚美 (9-15周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -2452,7 +2486,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2594,7 +2628,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>计算机程序设计（C语言）张涛 (7-14周) 资源勘查工程2020-1-3</t>
+          <t>计算机程序设计（C语言）张涛 (7-10,12-14周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2663,7 +2697,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2675,7 +2709,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2685,7 +2719,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2716,11 +2750,7 @@
           <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>形势与政策（4-1）张洋 (9-12周) 化学工程与工艺2021-1-3</t>
@@ -2861,11 +2891,7 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
@@ -2886,12 +2912,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2899,7 +2925,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2916,7 +2942,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -3026,22 +3052,22 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
@@ -3066,7 +3092,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
@@ -3105,7 +3135,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
@@ -3114,7 +3148,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -3349,7 +3383,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3383,7 +3417,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3444,11 +3478,7 @@
           <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -3459,7 +3489,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3487,11 +3517,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3506,12 +3532,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>工程地质学基础张伟杰 (8-16周) 地质工程2019-1</t>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
@@ -3602,7 +3628,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3640,12 +3666,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>外贸英文函电于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>商务英语口语于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3682,7 +3708,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际服务贸易李丽丽 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3709,7 +3735,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际金融孙江永 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -3721,7 +3747,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -3942,7 +3968,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3972,7 +3998,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3999,7 +4025,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -4056,7 +4082,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+          <t>沉积岩岩石学韩作振 (6-11,13周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4081,11 +4107,7 @@
           <t>大学物理（B）（2-2）张进娟 (1-12周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -4111,7 +4133,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>沉积环境与沉积相杨仁超 (4-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>沉积环境与沉积相杨仁超 (4-6,9周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
@@ -4188,7 +4210,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4204,17 +4226,17 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4223,7 +4245,11 @@
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要叶小青 (9周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
@@ -4250,7 +4276,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4261,7 +4287,11 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>数字信号分析与处理丁仁伟 (9周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
@@ -4271,19 +4301,19 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
+          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4306,7 +4336,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4378,14 +4408,14 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4422,7 +4452,11 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要叶小青 (9周) 金属材料工程2021-1-4</t>
+        </is>
+      </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
@@ -4499,7 +4533,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4563,11 +4597,7 @@
           <t>工程地质学基础徐东晶 (8-16周) 地质工程2019-2</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
@@ -4589,11 +4619,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>有限元方法刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
@@ -4654,7 +4680,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4705,7 +4731,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4766,7 +4792,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>工程测量翟敏 (1-9周) 采矿工程2019-4</t>
+          <t>工程测量翟敏 (1-6,8-9周) 采矿工程2019-4</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -4875,7 +4901,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-3,5-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4984,12 +5010,12 @@
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>环境工程微生物（双语）高宇 (1-9周) 环境工程2019-3</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -5002,7 +5028,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -5110,7 +5136,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5231,11 +5257,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5261,21 +5283,13 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
@@ -5418,18 +5432,10 @@
           <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -5513,7 +5519,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5629,7 +5635,7 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
+          <t>材料科学基础张芬 (7-12,14-16周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -5778,11 +5784,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
@@ -5860,7 +5862,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5873,7 +5875,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5890,7 +5892,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5956,7 +5958,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
+          <t>普通地质学张丽萍 (4-5,7-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5979,7 +5981,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5993,11 +5995,7 @@
           <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
@@ -6269,7 +6267,7 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>机器人技术高魁东,张明辉 (9-16周) 机械设计制造及其自动化2018-1-5</t>
+          <t>机器人技术高魁东,张明辉 (9-12,14-16周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -6308,7 +6306,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
@@ -6325,7 +6323,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr"/>
@@ -6382,7 +6380,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6397,11 +6395,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>财务分析赵桐 (1-9周) 会计学2019-2</t>
@@ -6544,7 +6538,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6573,11 +6567,7 @@
           <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
@@ -6622,11 +6612,7 @@
           <t>钻井工程宋维强 (7-11周) 采矿工程2019-1-4</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
@@ -6750,7 +6736,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6780,7 +6766,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -6824,7 +6810,11 @@
           <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -7003,7 +6993,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -7202,7 +7192,11 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -7394,7 +7388,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>水灾害防治魏久传 (6-12周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -7590,7 +7584,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7764,7 +7758,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -7783,7 +7777,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -7791,7 +7785,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -8030,13 +8024,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-513室</t>
+          <t>J14-514室</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -8050,7 +8052,11 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
@@ -8063,16 +8069,8 @@
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
@@ -8083,45 +8081,53 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
@@ -8140,53 +8146,61 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-520室</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
@@ -8205,60 +8219,72 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-520室</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr">
         <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr"/>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
@@ -8278,16 +8304,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-526室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -8297,53 +8327,33 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
@@ -8363,55 +8373,47 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-526室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-528室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
@@ -8432,7 +8434,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -8440,31 +8442,23 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
@@ -8473,8 +8467,16 @@
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
@@ -8493,7 +8495,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -8505,18 +8507,22 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -8526,16 +8532,8 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
@@ -8554,38 +8552,66 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-536室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
@@ -8611,72 +8637,64 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>机械设计基础（A）陈修龙 (8-15周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr">
         <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
@@ -8696,66 +8714,106 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr"/>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>海洋地球物理学支鹏遥 (9-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
@@ -8767,119 +8825,6 @@
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>海洋地球物理学支鹏遥 (9-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
-      <c r="AK90" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/9.xlsx
+++ b/excel/9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,7 +816,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1,3-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -893,12 +893,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>流体力学辛林 (9-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -937,7 +937,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+          <t>市场调查与预测宋平 (1,3-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1123,7 +1123,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1168,11 +1168,7 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t>材料科学基础 (A)刘洪权 (7-9周) 金属材料工程2020-4</t>
@@ -1196,22 +1192,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1345,7 +1341,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1411,19 +1407,19 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1572,7 +1568,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1997,14 +1993,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>地理建模原理与方法刘羽 (4-12周) 地理信息科学2019-1</t>
@@ -2145,11 +2137,7 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2187,11 +2175,7 @@
           <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2208,11 +2192,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2233,11 +2213,7 @@
           <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2274,22 +2250,14 @@
           <t>机械振动与噪声控制牟鸣飞 (9-16周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2328,16 +2296,8 @@
           <t>微观经济学(A)陈爱萍 (8-17周) 会计学2021-2</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2387,7 +2347,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2422,7 +2382,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2430,7 +2390,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2506,7 +2466,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2524,7 +2484,7 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
-          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+          <t>土地管理与信息系统李云岭 (1,3-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2638,7 +2598,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2757,11 +2717,7 @@
           <t>火灾事故调查孔彪 (4-11周) 安全工程2019-1-2</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
@@ -3135,7 +3091,11 @@
           <t>材料科学基础（B）姚树玉 (9-12周) 新能源材料与器件2020-1</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>应用统计学（C）张杰 (9周) 物流管理2019-1-2</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>材料科学基础（B）姚树玉 (9-12周) 新能源材料与器件2020-2</t>
@@ -3209,7 +3169,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
+          <t>液压传动与控制杨扬 (1,3-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3218,7 +3178,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
+          <t>金融专业英语闻德美 (1,3-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3285,7 +3245,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+          <t>化工分离工程高军 (1,3-9周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3460,16 +3420,8 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
@@ -3486,11 +3438,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3516,11 +3464,7 @@
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3556,7 +3500,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3595,7 +3539,7 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
+          <t>银行结算*邢苗 (1,3-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -3624,17 +3568,9 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>矿井通风与安全鹿广利 (1-7,9-10周) 采矿工程（智能开采方向）2019-1-2</t>
@@ -3654,17 +3590,9 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
@@ -3673,22 +3601,14 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -4219,7 +4139,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4408,7 +4328,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4522,7 +4442,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>材料成形过程计算机模拟刘杰 (7-9,14-16周) 材料成型及控制工程2019-1</t>
+          <t>材料成形过程计算机模拟刘杰 (8-9,14-16周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4548,7 +4468,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>材料成形过程计算机模拟刘杰 (7-9,14-16周) 材料成型及控制工程2019-1</t>
+          <t>材料成形过程计算机模拟刘杰 (8-9,14-16周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -4607,7 +4527,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4638,7 +4558,7 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -4677,7 +4597,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+          <t>大地测量学基础张燕 (1-7,9-10周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4698,7 +4618,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
+          <t>GNSS测量与数据处理苏醒 (1-4,6,9周) 遥感科学与技术2019-2</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4728,7 +4648,7 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+          <t>GNSS测量与数据处理刘智敏 (1,3-6,8-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -4878,7 +4798,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4927,7 +4847,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -5176,12 +5096,12 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1,3-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
+          <t>机械设计(A)高丽 (1,3-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
@@ -5400,7 +5320,7 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-1-2</t>
+          <t>高分子专业外语刘欣 (3-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5497,7 +5417,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5523,7 +5443,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -5540,7 +5460,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -5608,11 +5528,7 @@
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
@@ -5646,14 +5562,10 @@
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5734,7 +5646,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>煤化工工艺学梁鹏 (9周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
@@ -5894,7 +5810,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>汽轮机原理李志敏 (1,3-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -6148,7 +6064,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
@@ -6619,7 +6535,11 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (9-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr">
         <is>
           <t>马克思主义基本原理李岩 (1-12周) 新能源材料与器件2020-1-2班,材料化学2020-1-2</t>
@@ -6869,7 +6789,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>数据挖掘刘彤 (7-14周) 采矿工程（智能开采方向）2019-1-2</t>
+          <t>数据挖掘刘彤 (8-14周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6976,7 +6896,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -7006,7 +6926,7 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -7091,7 +7011,7 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -7283,7 +7203,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -7304,7 +7224,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1,3-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -7338,7 +7258,7 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -7354,12 +7274,12 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理崔健慧 (6-9周) 遥感科学与技术2019-3</t>
+          <t>GNSS测量与数据处理崔健慧 (6,8-9周) 遥感科学与技术2019-3</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+          <t>微波遥感王志勇 (1,3-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -7485,7 +7405,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7566,7 +7486,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+          <t>数据挖掘张福平 (1,3-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7786,7 +7706,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+          <t>汽车理论李玉善 (1-4,6-10周) 车辆工程2019-1</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -8035,43 +7955,83 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-523室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6,8-9周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+          <t>景观设计（二）仇同文 (6,8-9周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
@@ -8092,81 +8052,53 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr">
         <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
@@ -8189,56 +8121,76 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-531室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr"/>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -8258,76 +8210,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-531室</t>
+          <t>J14-520室</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
+      <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>视觉传达设计导论姚沫 (9周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
@@ -8347,31 +8259,55 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-520室</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>J14-533室</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>视觉传达设计导论姚沫 (9周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
@@ -8396,30 +8332,26 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-533室</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>J14-535室</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>空间大地测量学基础孔巧丽 (1,3-9周) 测绘工程2019-1-2</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -8427,25 +8359,29 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
+          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+        </is>
+      </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr"/>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
@@ -8469,56 +8405,52 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-535室</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
@@ -8542,24 +8474,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-526室</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -8567,30 +8487,42 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -8611,7 +8543,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -8619,47 +8551,31 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
@@ -8680,24 +8596,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -8706,13 +8622,29 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
@@ -8733,21 +8665,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -8761,27 +8685,27 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -8802,48 +8726,80 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J14-536室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr"/>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
@@ -8863,78 +8819,74 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
         <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr"/>
@@ -8956,44 +8908,36 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
@@ -9001,31 +8945,19 @@
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
-          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
@@ -9045,53 +8977,49 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>J14-521室</t>
+          <t>J14-509室</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr"/>
@@ -9114,43 +9042,59 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>J14-509室</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
-        </is>
-      </c>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制吴士良 (6-10周) 采矿工程2019-3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>矿山灾害预防与控制李学龙 (6-9周) 安全工程2019-3-4</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
-        </is>
-      </c>
+      <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -9171,55 +9115,55 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>矿山压力与岩层控制吴士良 (6-10周) 采矿工程2019-3</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>矿山灾害预防与控制李学龙 (6-9周) 安全工程2019-3-4</t>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>化工原理（2-1）牛海丽 (2-9周) 生物工程2020-2</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
@@ -9244,59 +9188,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>J14-519室</t>
+          <t>J14-515室</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>化工原理（2-1）牛海丽 (2-9周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
@@ -9311,63 +9239,6 @@
       <c r="AJ101" t="inlineStr"/>
       <c r="AK101" t="inlineStr"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>J14-515室</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="inlineStr"/>
-      <c r="AH102" t="inlineStr"/>
-      <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="inlineStr"/>
-      <c r="AK102" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
